--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.39831492823704</v>
+        <v>7.752988</v>
       </c>
       <c r="H2">
-        <v>7.39831492823704</v>
+        <v>15.505976</v>
       </c>
       <c r="I2">
-        <v>0.02834350698365658</v>
+        <v>0.0280991111609414</v>
       </c>
       <c r="J2">
-        <v>0.02834350698365658</v>
+        <v>0.0202773277895056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0526729216486042</v>
+        <v>0.052894</v>
       </c>
       <c r="N2">
-        <v>0.0526729216486042</v>
+        <v>0.105788</v>
       </c>
       <c r="O2">
-        <v>0.003571479909717638</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P2">
-        <v>0.003571479909717638</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q2">
-        <v>0.3896908625467285</v>
+        <v>0.410086547272</v>
       </c>
       <c r="R2">
-        <v>0.3896908625467285</v>
+        <v>1.640346189088</v>
       </c>
       <c r="S2">
-        <v>0.000101228265763071</v>
+        <v>9.056729329418067E-05</v>
       </c>
       <c r="T2">
-        <v>0.000101228265763071</v>
+        <v>5.80899256032348E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.39831492823704</v>
+        <v>7.752988</v>
       </c>
       <c r="H3">
-        <v>7.39831492823704</v>
+        <v>15.505976</v>
       </c>
       <c r="I3">
-        <v>0.02834350698365658</v>
+        <v>0.0280991111609414</v>
       </c>
       <c r="J3">
-        <v>0.02834350698365658</v>
+        <v>0.0202773277895056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64733163008117</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N3">
-        <v>2.64733163008117</v>
+        <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1795019420846099</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P3">
-        <v>0.1795019420846099</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q3">
-        <v>19.58579311882362</v>
+        <v>21.83120215754267</v>
       </c>
       <c r="R3">
-        <v>19.58579311882362</v>
+        <v>130.987212945256</v>
       </c>
       <c r="S3">
-        <v>0.005087714549055058</v>
+        <v>0.004821403925389668</v>
       </c>
       <c r="T3">
-        <v>0.005087714549055058</v>
+        <v>0.004638677802028771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.39831492823704</v>
+        <v>7.752988</v>
       </c>
       <c r="H4">
-        <v>7.39831492823704</v>
+        <v>15.505976</v>
       </c>
       <c r="I4">
-        <v>0.02834350698365658</v>
+        <v>0.0280991111609414</v>
       </c>
       <c r="J4">
-        <v>0.02834350698365658</v>
+        <v>0.0202773277895056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.423198927845002</v>
+        <v>0.226329</v>
       </c>
       <c r="N4">
-        <v>0.423198927845002</v>
+        <v>0.678987</v>
       </c>
       <c r="O4">
-        <v>0.0286949427012185</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P4">
-        <v>0.0286949427012185</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q4">
-        <v>3.130958945489589</v>
+        <v>1.754726021052</v>
       </c>
       <c r="R4">
-        <v>3.130958945489589</v>
+        <v>10.528356126312</v>
       </c>
       <c r="S4">
-        <v>0.0008133153088476119</v>
+        <v>0.0003875298696256403</v>
       </c>
       <c r="T4">
-        <v>0.0008133153088476119</v>
+        <v>0.0003728428963168184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.39831492823704</v>
+        <v>7.752988</v>
       </c>
       <c r="H5">
-        <v>7.39831492823704</v>
+        <v>15.505976</v>
       </c>
       <c r="I5">
-        <v>0.02834350698365658</v>
+        <v>0.0280991111609414</v>
       </c>
       <c r="J5">
-        <v>0.02834350698365658</v>
+        <v>0.0202773277895056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.439422695519237</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N5">
-        <v>0.439422695519237</v>
+        <v>1.684941</v>
       </c>
       <c r="O5">
-        <v>0.02979499294515617</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P5">
-        <v>0.02979499294515617</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q5">
-        <v>3.250987488066131</v>
+        <v>4.354442451235999</v>
       </c>
       <c r="R5">
-        <v>3.250987488066131</v>
+        <v>26.126654707416</v>
       </c>
       <c r="S5">
-        <v>0.0008444945906190323</v>
+        <v>0.0009616752103602807</v>
       </c>
       <c r="T5">
-        <v>0.0008444945906190323</v>
+        <v>0.0009252287342216513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.39831492823704</v>
+        <v>7.752988</v>
       </c>
       <c r="H6">
-        <v>7.39831492823704</v>
+        <v>15.505976</v>
       </c>
       <c r="I6">
-        <v>0.02834350698365658</v>
+        <v>0.0280991111609414</v>
       </c>
       <c r="J6">
-        <v>0.02834350698365658</v>
+        <v>0.0202773277895056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1855798851687</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N6">
-        <v>11.1855798851687</v>
+        <v>1.50581</v>
       </c>
       <c r="O6">
-        <v>0.7584366423592978</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P6">
-        <v>0.7584366423592978</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q6">
-        <v>82.75444264543155</v>
+        <v>3.891508953426667</v>
       </c>
       <c r="R6">
-        <v>82.75444264543155</v>
+        <v>23.34905372056</v>
       </c>
       <c r="S6">
-        <v>0.0214967542693718</v>
+        <v>0.0008594367093640754</v>
       </c>
       <c r="T6">
-        <v>0.0214967542693718</v>
+        <v>0.0008268649645763887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>194.463039258355</v>
+        <v>7.752988</v>
       </c>
       <c r="H7">
-        <v>194.463039258355</v>
+        <v>15.505976</v>
       </c>
       <c r="I7">
-        <v>0.745002688415655</v>
+        <v>0.0280991111609414</v>
       </c>
       <c r="J7">
-        <v>0.745002688415655</v>
+        <v>0.0202773277895056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0526729216486042</v>
+        <v>12.2520685</v>
       </c>
       <c r="N7">
-        <v>0.0526729216486042</v>
+        <v>24.504137</v>
       </c>
       <c r="O7">
-        <v>0.003571479909717638</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P7">
-        <v>0.003571479909717638</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q7">
-        <v>10.24293643040478</v>
+        <v>94.990140055678</v>
       </c>
       <c r="R7">
-        <v>10.24293643040478</v>
+        <v>379.960560222712</v>
       </c>
       <c r="S7">
-        <v>0.002660762134362141</v>
+        <v>0.02097849815290756</v>
       </c>
       <c r="T7">
-        <v>0.002660762134362141</v>
+        <v>0.01345562346675874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>194.463039258355</v>
+        <v>206.1033023333333</v>
       </c>
       <c r="H8">
-        <v>194.463039258355</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I8">
-        <v>0.745002688415655</v>
+        <v>0.7469790489681458</v>
       </c>
       <c r="J8">
-        <v>0.745002688415655</v>
+        <v>0.8085703640801279</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.64733163008117</v>
+        <v>0.052894</v>
       </c>
       <c r="N8">
-        <v>2.64733163008117</v>
+        <v>0.105788</v>
       </c>
       <c r="O8">
-        <v>0.1795019420846099</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P8">
-        <v>0.1795019420846099</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q8">
-        <v>514.8081547103594</v>
+        <v>10.90162807361933</v>
       </c>
       <c r="R8">
-        <v>514.8081547103594</v>
+        <v>65.409768441716</v>
       </c>
       <c r="S8">
-        <v>0.1337294294288656</v>
+        <v>0.002407616035433331</v>
       </c>
       <c r="T8">
-        <v>0.1337294294288656</v>
+        <v>0.002316369927141189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>194.463039258355</v>
+        <v>206.1033023333333</v>
       </c>
       <c r="H9">
-        <v>194.463039258355</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I9">
-        <v>0.745002688415655</v>
+        <v>0.7469790489681458</v>
       </c>
       <c r="J9">
-        <v>0.745002688415655</v>
+        <v>0.8085703640801279</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.423198927845002</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N9">
-        <v>0.423198927845002</v>
+        <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.0286949427012185</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P9">
-        <v>0.0286949427012185</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q9">
-        <v>82.29654971961637</v>
+        <v>580.3546785544019</v>
       </c>
       <c r="R9">
-        <v>82.29654971961637</v>
+        <v>5223.192106989617</v>
       </c>
       <c r="S9">
-        <v>0.02137780945634096</v>
+        <v>0.1281708769452122</v>
       </c>
       <c r="T9">
-        <v>0.02137780945634096</v>
+        <v>0.1849700038472505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>194.463039258355</v>
+        <v>206.1033023333333</v>
       </c>
       <c r="H10">
-        <v>194.463039258355</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I10">
-        <v>0.745002688415655</v>
+        <v>0.7469790489681458</v>
       </c>
       <c r="J10">
-        <v>0.745002688415655</v>
+        <v>0.8085703640801279</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.439422695519237</v>
+        <v>0.226329</v>
       </c>
       <c r="N10">
-        <v>0.439422695519237</v>
+        <v>0.678987</v>
       </c>
       <c r="O10">
-        <v>0.02979499294515617</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P10">
-        <v>0.02979499294515617</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q10">
-        <v>85.45147288976956</v>
+        <v>46.647154313801</v>
       </c>
       <c r="R10">
-        <v>85.45147288976956</v>
+        <v>419.8243888242091</v>
       </c>
       <c r="S10">
-        <v>0.02219734984546682</v>
+        <v>0.01030198755404376</v>
       </c>
       <c r="T10">
-        <v>0.02219734984546682</v>
+        <v>0.01486732963776435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>194.463039258355</v>
+        <v>206.1033023333333</v>
       </c>
       <c r="H11">
-        <v>194.463039258355</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I11">
-        <v>0.745002688415655</v>
+        <v>0.7469790489681458</v>
       </c>
       <c r="J11">
-        <v>0.745002688415655</v>
+        <v>0.8085703640801279</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1855798851687</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N11">
-        <v>11.1855798851687</v>
+        <v>1.684941</v>
       </c>
       <c r="O11">
-        <v>0.7584366423592978</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P11">
-        <v>0.7584366423592978</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q11">
-        <v>2175.181860337027</v>
+        <v>115.7573014456097</v>
       </c>
       <c r="R11">
-        <v>2175.181860337027</v>
+        <v>1041.815713010487</v>
       </c>
       <c r="S11">
-        <v>0.5650373375506195</v>
+        <v>0.02556490950680652</v>
       </c>
       <c r="T11">
-        <v>0.5650373375506195</v>
+        <v>0.03689403960191329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.139134914471384</v>
+        <v>206.1033023333333</v>
       </c>
       <c r="H12">
-        <v>0.139134914471384</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I12">
-        <v>0.0005330364357617114</v>
+        <v>0.7469790489681458</v>
       </c>
       <c r="J12">
-        <v>0.0005330364357617114</v>
+        <v>0.8085703640801279</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0526729216486042</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N12">
-        <v>0.0526729216486042</v>
+        <v>1.50581</v>
       </c>
       <c r="O12">
-        <v>0.003571479909717638</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P12">
-        <v>0.003571479909717638</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q12">
-        <v>0.007328642448536457</v>
+        <v>103.4508045621856</v>
       </c>
       <c r="R12">
-        <v>0.007328642448536457</v>
+        <v>931.0572410596701</v>
       </c>
       <c r="S12">
-        <v>1.903728921470449E-06</v>
+        <v>0.02284702929327753</v>
       </c>
       <c r="T12">
-        <v>1.903728921470449E-06</v>
+        <v>0.03297172647170261</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.139134914471384</v>
+        <v>206.1033023333333</v>
       </c>
       <c r="H13">
-        <v>0.139134914471384</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I13">
-        <v>0.0005330364357617114</v>
+        <v>0.7469790489681458</v>
       </c>
       <c r="J13">
-        <v>0.0005330364357617114</v>
+        <v>0.8085703640801279</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.64733163008117</v>
+        <v>12.2520685</v>
       </c>
       <c r="N13">
-        <v>2.64733163008117</v>
+        <v>24.504137</v>
       </c>
       <c r="O13">
-        <v>0.1795019420846099</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P13">
-        <v>0.1795019420846099</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q13">
-        <v>0.3683362599287332</v>
+        <v>2525.19177826421</v>
       </c>
       <c r="R13">
-        <v>0.3683362599287332</v>
+        <v>15151.15066958526</v>
       </c>
       <c r="S13">
-        <v>9.568107542108559E-05</v>
+        <v>0.5576866296333725</v>
       </c>
       <c r="T13">
-        <v>9.568107542108559E-05</v>
+        <v>0.5365508945943559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.139134914471384</v>
+        <v>0.1909396666666666</v>
       </c>
       <c r="H14">
-        <v>0.139134914471384</v>
+        <v>0.572819</v>
       </c>
       <c r="I14">
-        <v>0.0005330364357617114</v>
+        <v>0.0006920215688067314</v>
       </c>
       <c r="J14">
-        <v>0.0005330364357617114</v>
+        <v>0.0007490814268677321</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.423198927845002</v>
+        <v>0.052894</v>
       </c>
       <c r="N14">
-        <v>0.423198927845002</v>
+        <v>0.105788</v>
       </c>
       <c r="O14">
-        <v>0.0286949427012185</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P14">
-        <v>0.0286949427012185</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q14">
-        <v>0.05888174663009577</v>
+        <v>0.01009956272866666</v>
       </c>
       <c r="R14">
-        <v>0.05888174663009577</v>
+        <v>0.06059737637199999</v>
       </c>
       <c r="S14">
-        <v>1.529544998184404E-05</v>
+        <v>2.230480531182699E-06</v>
       </c>
       <c r="T14">
-        <v>1.529544998184404E-05</v>
+        <v>2.145947671666676E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.139134914471384</v>
+        <v>0.1909396666666666</v>
       </c>
       <c r="H15">
-        <v>0.139134914471384</v>
+        <v>0.572819</v>
       </c>
       <c r="I15">
-        <v>0.0005330364357617114</v>
+        <v>0.0006920215688067314</v>
       </c>
       <c r="J15">
-        <v>0.0005330364357617114</v>
+        <v>0.0007490814268677321</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.439422695519237</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N15">
-        <v>0.439422695519237</v>
+        <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.02979499294515617</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P15">
-        <v>0.02979499294515617</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q15">
-        <v>0.06113903915785406</v>
+        <v>0.5376562510987777</v>
       </c>
       <c r="R15">
-        <v>0.06113903915785406</v>
+        <v>4.838906259889</v>
       </c>
       <c r="S15">
-        <v>1.588181684303138E-05</v>
+        <v>0.0001187409626300545</v>
       </c>
       <c r="T15">
-        <v>1.588181684303138E-05</v>
+        <v>0.0001713612080839232</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.139134914471384</v>
+        <v>0.1909396666666666</v>
       </c>
       <c r="H16">
-        <v>0.139134914471384</v>
+        <v>0.572819</v>
       </c>
       <c r="I16">
-        <v>0.0005330364357617114</v>
+        <v>0.0006920215688067314</v>
       </c>
       <c r="J16">
-        <v>0.0005330364357617114</v>
+        <v>0.0007490814268677321</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.1855798851687</v>
+        <v>0.226329</v>
       </c>
       <c r="N16">
-        <v>11.1855798851687</v>
+        <v>0.678987</v>
       </c>
       <c r="O16">
-        <v>0.7584366423592978</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P16">
-        <v>0.7584366423592978</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q16">
-        <v>1.55630470063578</v>
+        <v>0.04321518381699999</v>
       </c>
       <c r="R16">
-        <v>1.55630470063578</v>
+        <v>0.388936654353</v>
       </c>
       <c r="S16">
-        <v>0.0004042743645942799</v>
+        <v>9.544039553485254E-06</v>
       </c>
       <c r="T16">
-        <v>0.0004042743645942799</v>
+        <v>1.377349578158148E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>5.70054958080055</v>
+        <v>0.1909396666666666</v>
       </c>
       <c r="H17">
-        <v>5.70054958080055</v>
+        <v>0.572819</v>
       </c>
       <c r="I17">
-        <v>0.02183923885659767</v>
+        <v>0.0006920215688067314</v>
       </c>
       <c r="J17">
-        <v>0.02183923885659767</v>
+        <v>0.0007490814268677321</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0526729216486042</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N17">
-        <v>0.0526729216486042</v>
+        <v>1.684941</v>
       </c>
       <c r="O17">
-        <v>0.003571479909717638</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P17">
-        <v>0.003571479909717638</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q17">
-        <v>0.3002646014234909</v>
+        <v>0.1072406909643333</v>
       </c>
       <c r="R17">
-        <v>0.3002646014234909</v>
+        <v>0.9651662186789999</v>
       </c>
       <c r="S17">
-        <v>7.799840281986338E-05</v>
+        <v>2.368402274165631E-05</v>
       </c>
       <c r="T17">
-        <v>7.799840281986338E-05</v>
+        <v>3.417963489096798E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>5.70054958080055</v>
+        <v>0.1909396666666666</v>
       </c>
       <c r="H18">
-        <v>5.70054958080055</v>
+        <v>0.572819</v>
       </c>
       <c r="I18">
-        <v>0.02183923885659767</v>
+        <v>0.0006920215688067314</v>
       </c>
       <c r="J18">
-        <v>0.02183923885659767</v>
+        <v>0.0007490814268677321</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.64733163008117</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N18">
-        <v>2.64733163008117</v>
+        <v>1.50581</v>
       </c>
       <c r="O18">
-        <v>0.1795019420846099</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P18">
-        <v>0.1795019420846099</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q18">
-        <v>15.09124521409925</v>
+        <v>0.09583961982111111</v>
       </c>
       <c r="R18">
-        <v>15.09124521409925</v>
+        <v>0.86255657839</v>
       </c>
       <c r="S18">
-        <v>0.003920185788408957</v>
+        <v>2.116610509484516E-05</v>
       </c>
       <c r="T18">
-        <v>0.003920185788408957</v>
+        <v>3.054589805528413E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>5.70054958080055</v>
+        <v>0.1909396666666666</v>
       </c>
       <c r="H19">
-        <v>5.70054958080055</v>
+        <v>0.572819</v>
       </c>
       <c r="I19">
-        <v>0.02183923885659767</v>
+        <v>0.0006920215688067314</v>
       </c>
       <c r="J19">
-        <v>0.02183923885659767</v>
+        <v>0.0007490814268677321</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.423198927845002</v>
+        <v>12.2520685</v>
       </c>
       <c r="N19">
-        <v>0.423198927845002</v>
+        <v>24.504137</v>
       </c>
       <c r="O19">
-        <v>0.0286949427012185</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P19">
-        <v>0.0286949427012185</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q19">
-        <v>2.412466470722069</v>
+        <v>2.339405875367166</v>
       </c>
       <c r="R19">
-        <v>2.412466470722069</v>
+        <v>14.036435252203</v>
       </c>
       <c r="S19">
-        <v>0.0006266757076282949</v>
+        <v>0.0005166559582555075</v>
       </c>
       <c r="T19">
-        <v>0.0006266757076282949</v>
+        <v>0.0004970752423843086</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.70054958080055</v>
+        <v>0.1973266666666667</v>
       </c>
       <c r="H20">
-        <v>5.70054958080055</v>
+        <v>0.59198</v>
       </c>
       <c r="I20">
-        <v>0.02183923885659767</v>
+        <v>0.0007151699372789815</v>
       </c>
       <c r="J20">
-        <v>0.02183923885659767</v>
+        <v>0.0007741384679578715</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.439422695519237</v>
+        <v>0.052894</v>
       </c>
       <c r="N20">
-        <v>0.439422695519237</v>
+        <v>0.105788</v>
       </c>
       <c r="O20">
-        <v>0.02979499294515617</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P20">
-        <v>0.02979499294515617</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q20">
-        <v>2.504950862736434</v>
+        <v>0.01043739670666667</v>
       </c>
       <c r="R20">
-        <v>2.504950862736434</v>
+        <v>0.06262438023999999</v>
       </c>
       <c r="S20">
-        <v>0.0006506999676599081</v>
+        <v>2.3050909010517E-06</v>
       </c>
       <c r="T20">
-        <v>0.0006506999676599081</v>
+        <v>2.21773038721348E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.70054958080055</v>
+        <v>0.1973266666666667</v>
       </c>
       <c r="H21">
-        <v>5.70054958080055</v>
+        <v>0.59198</v>
       </c>
       <c r="I21">
-        <v>0.02183923885659767</v>
+        <v>0.0007151699372789815</v>
       </c>
       <c r="J21">
-        <v>0.02183923885659767</v>
+        <v>0.0007741384679578715</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.1855798851687</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N21">
-        <v>11.1855798851687</v>
+        <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.7584366423592978</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P21">
-        <v>0.7584366423592978</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q21">
-        <v>63.7639527254095</v>
+        <v>0.5556410445977776</v>
       </c>
       <c r="R21">
-        <v>63.7639527254095</v>
+        <v>5.000769401379999</v>
       </c>
       <c r="S21">
-        <v>0.01656367899008065</v>
+        <v>0.0001227128902109387</v>
       </c>
       <c r="T21">
-        <v>0.01656367899008065</v>
+        <v>0.000177093301656406</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.3222331561289</v>
+        <v>0.1973266666666667</v>
       </c>
       <c r="H22">
-        <v>53.3222331561289</v>
+        <v>0.59198</v>
       </c>
       <c r="I22">
-        <v>0.2042815293083291</v>
+        <v>0.0007151699372789815</v>
       </c>
       <c r="J22">
-        <v>0.2042815293083291</v>
+        <v>0.0007741384679578715</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.0526729216486042</v>
+        <v>0.226329</v>
       </c>
       <c r="N22">
-        <v>0.0526729216486042</v>
+        <v>0.678987</v>
       </c>
       <c r="O22">
-        <v>0.003571479909717638</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P22">
-        <v>0.003571479909717638</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q22">
-        <v>2.808637809161383</v>
+        <v>0.04466074714</v>
       </c>
       <c r="R22">
-        <v>2.808637809161383</v>
+        <v>0.4019467242599999</v>
       </c>
       <c r="S22">
-        <v>0.0007295873778510924</v>
+        <v>9.863291082998646E-06</v>
       </c>
       <c r="T22">
-        <v>0.0007295873778510924</v>
+        <v>1.423422413149808E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.3222331561289</v>
+        <v>0.1973266666666667</v>
       </c>
       <c r="H23">
-        <v>53.3222331561289</v>
+        <v>0.59198</v>
       </c>
       <c r="I23">
-        <v>0.2042815293083291</v>
+        <v>0.0007151699372789815</v>
       </c>
       <c r="J23">
-        <v>0.2042815293083291</v>
+        <v>0.0007741384679578715</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.64733163008117</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N23">
-        <v>2.64733163008117</v>
+        <v>1.684941</v>
       </c>
       <c r="O23">
-        <v>0.1795019420846099</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P23">
-        <v>0.1795019420846099</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q23">
-        <v>141.1616344207829</v>
+        <v>0.1108279303533333</v>
       </c>
       <c r="R23">
-        <v>141.1616344207829</v>
+        <v>0.9974513731799998</v>
       </c>
       <c r="S23">
-        <v>0.03666893124285923</v>
+        <v>2.447626175564307E-05</v>
       </c>
       <c r="T23">
-        <v>0.03666893124285923</v>
+        <v>3.532295587743288E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.3222331561289</v>
+        <v>0.1973266666666667</v>
       </c>
       <c r="H24">
-        <v>53.3222331561289</v>
+        <v>0.59198</v>
       </c>
       <c r="I24">
-        <v>0.2042815293083291</v>
+        <v>0.0007151699372789815</v>
       </c>
       <c r="J24">
-        <v>0.2042815293083291</v>
+        <v>0.0007741384679578715</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.423198927845002</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N24">
-        <v>0.423198927845002</v>
+        <v>1.50581</v>
       </c>
       <c r="O24">
-        <v>0.0286949427012185</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P24">
-        <v>0.0286949427012185</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q24">
-        <v>22.56591190197497</v>
+        <v>0.09904548931111111</v>
       </c>
       <c r="R24">
-        <v>22.56591190197497</v>
+        <v>0.8914094038</v>
       </c>
       <c r="S24">
-        <v>0.005861846778419793</v>
+        <v>2.187411886485337E-05</v>
       </c>
       <c r="T24">
-        <v>0.005861846778419793</v>
+        <v>3.156766924764559E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.3222331561289</v>
+        <v>0.1973266666666667</v>
       </c>
       <c r="H25">
-        <v>53.3222331561289</v>
+        <v>0.59198</v>
       </c>
       <c r="I25">
-        <v>0.2042815293083291</v>
+        <v>0.0007151699372789815</v>
       </c>
       <c r="J25">
-        <v>0.2042815293083291</v>
+        <v>0.0007741384679578715</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.439422695519237</v>
+        <v>12.2520685</v>
       </c>
       <c r="N25">
-        <v>0.439422695519237</v>
+        <v>24.504137</v>
       </c>
       <c r="O25">
-        <v>0.02979499294515617</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P25">
-        <v>0.02979499294515617</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q25">
-        <v>23.4309994245714</v>
+        <v>2.417659836876667</v>
       </c>
       <c r="R25">
-        <v>23.4309994245714</v>
+        <v>14.50595902126</v>
       </c>
       <c r="S25">
-        <v>0.006086566724567379</v>
+        <v>0.000533938284463496</v>
       </c>
       <c r="T25">
-        <v>0.006086566724567379</v>
+        <v>0.0005137025866576755</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.372121666666668</v>
+      </c>
+      <c r="H26">
+        <v>19.116365</v>
+      </c>
+      <c r="I26">
+        <v>0.02309444501174384</v>
+      </c>
+      <c r="J26">
+        <v>0.02499867143150694</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.052894</v>
+      </c>
+      <c r="N26">
+        <v>0.105788</v>
+      </c>
+      <c r="O26">
+        <v>0.003223137300516178</v>
+      </c>
+      <c r="P26">
+        <v>0.002864772232626178</v>
+      </c>
+      <c r="Q26">
+        <v>0.3370470034366667</v>
+      </c>
+      <c r="R26">
+        <v>2.02228202062</v>
+      </c>
+      <c r="S26">
+        <v>7.443656715207135E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.161549976952638E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.372121666666668</v>
+      </c>
+      <c r="H27">
+        <v>19.116365</v>
+      </c>
+      <c r="I27">
+        <v>0.02309444501174384</v>
+      </c>
+      <c r="J27">
+        <v>0.02499867143150694</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N27">
+        <v>8.447531</v>
+      </c>
+      <c r="O27">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P27">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q27">
+        <v>17.94289843831278</v>
+      </c>
+      <c r="R27">
+        <v>161.486085944815</v>
+      </c>
+      <c r="S27">
+        <v>0.003962675089491589</v>
+      </c>
+      <c r="T27">
+        <v>0.00571874082489098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.372121666666668</v>
+      </c>
+      <c r="H28">
+        <v>19.116365</v>
+      </c>
+      <c r="I28">
+        <v>0.02309444501174384</v>
+      </c>
+      <c r="J28">
+        <v>0.02499867143150694</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.226329</v>
+      </c>
+      <c r="N28">
+        <v>0.678987</v>
+      </c>
+      <c r="O28">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P28">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q28">
+        <v>1.442195924695</v>
+      </c>
+      <c r="R28">
+        <v>12.979763322255</v>
+      </c>
+      <c r="S28">
+        <v>0.0003185078422308987</v>
+      </c>
+      <c r="T28">
+        <v>0.0004596550964382672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.372121666666668</v>
+      </c>
+      <c r="H29">
+        <v>19.116365</v>
+      </c>
+      <c r="I29">
+        <v>0.02309444501174384</v>
+      </c>
+      <c r="J29">
+        <v>0.02499867143150694</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.684941</v>
+      </c>
+      <c r="O29">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P29">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q29">
+        <v>3.578883017718333</v>
+      </c>
+      <c r="R29">
+        <v>32.209947159465</v>
+      </c>
+      <c r="S29">
+        <v>0.0007903935159235342</v>
+      </c>
+      <c r="T29">
+        <v>0.001140657653015139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.372121666666668</v>
+      </c>
+      <c r="H30">
+        <v>19.116365</v>
+      </c>
+      <c r="I30">
+        <v>0.02309444501174384</v>
+      </c>
+      <c r="J30">
+        <v>0.02499867143150694</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.50581</v>
+      </c>
+      <c r="O30">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P30">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q30">
+        <v>3.198401508961112</v>
+      </c>
+      <c r="R30">
+        <v>28.78561358065</v>
+      </c>
+      <c r="S30">
+        <v>0.0007063644722354179</v>
+      </c>
+      <c r="T30">
+        <v>0.001019391005671253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.372121666666668</v>
+      </c>
+      <c r="H31">
+        <v>19.116365</v>
+      </c>
+      <c r="I31">
+        <v>0.02309444501174384</v>
+      </c>
+      <c r="J31">
+        <v>0.02499867143150694</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.2520685</v>
+      </c>
+      <c r="N31">
+        <v>24.504137</v>
+      </c>
+      <c r="O31">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P31">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q31">
+        <v>78.07167115033418</v>
+      </c>
+      <c r="R31">
+        <v>468.4300269020051</v>
+      </c>
+      <c r="S31">
+        <v>0.01724206752471033</v>
+      </c>
+      <c r="T31">
+        <v>0.01658861135172177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>55.29909549999999</v>
+      </c>
+      <c r="H32">
+        <v>110.598191</v>
+      </c>
+      <c r="I32">
+        <v>0.2004202033530832</v>
+      </c>
+      <c r="J32">
+        <v>0.144630416804034</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.052894</v>
+      </c>
+      <c r="N32">
+        <v>0.105788</v>
+      </c>
+      <c r="O32">
+        <v>0.003223137300516178</v>
+      </c>
+      <c r="P32">
+        <v>0.002864772232626178</v>
+      </c>
+      <c r="Q32">
+        <v>2.924990357376999</v>
+      </c>
+      <c r="R32">
+        <v>11.699961429508</v>
+      </c>
+      <c r="S32">
+        <v>0.0006459818332043601</v>
+      </c>
+      <c r="T32">
+        <v>0.0004143332020533472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>55.29909549999999</v>
+      </c>
+      <c r="H33">
+        <v>110.598191</v>
+      </c>
+      <c r="I33">
+        <v>0.2004202033530832</v>
+      </c>
+      <c r="J33">
+        <v>0.144630416804034</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N33">
+        <v>8.447531</v>
+      </c>
+      <c r="O33">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P33">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q33">
+        <v>155.7136078360701</v>
+      </c>
+      <c r="R33">
+        <v>934.2816470164208</v>
+      </c>
+      <c r="S33">
+        <v>0.03438922852894884</v>
+      </c>
+      <c r="T33">
+        <v>0.03308591303999427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55.29909549999999</v>
+      </c>
+      <c r="H34">
+        <v>110.598191</v>
+      </c>
+      <c r="I34">
+        <v>0.2004202033530832</v>
+      </c>
+      <c r="J34">
+        <v>0.144630416804034</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.226329</v>
+      </c>
+      <c r="N34">
+        <v>0.678987</v>
+      </c>
+      <c r="O34">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P34">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q34">
+        <v>12.5157889854195</v>
+      </c>
+      <c r="R34">
+        <v>75.09473391251699</v>
+      </c>
+      <c r="S34">
+        <v>0.002764102210596847</v>
+      </c>
+      <c r="T34">
+        <v>0.002659345652272432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>55.29909549999999</v>
+      </c>
+      <c r="H35">
+        <v>110.598191</v>
+      </c>
+      <c r="I35">
+        <v>0.2004202033530832</v>
+      </c>
+      <c r="J35">
+        <v>0.144630416804034</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N35">
+        <v>1.684941</v>
+      </c>
+      <c r="O35">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P35">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q35">
+        <v>31.05857109028849</v>
+      </c>
+      <c r="R35">
+        <v>186.3514265417309</v>
+      </c>
+      <c r="S35">
+        <v>0.006859261138762983</v>
+      </c>
+      <c r="T35">
+        <v>0.006599302376460173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>53.3222331561289</v>
-      </c>
-      <c r="H26">
-        <v>53.3222331561289</v>
-      </c>
-      <c r="I26">
-        <v>0.2042815293083291</v>
-      </c>
-      <c r="J26">
-        <v>0.2042815293083291</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>11.1855798851687</v>
-      </c>
-      <c r="N26">
-        <v>11.1855798851687</v>
-      </c>
-      <c r="O26">
-        <v>0.7584366423592978</v>
-      </c>
-      <c r="P26">
-        <v>0.7584366423592978</v>
-      </c>
-      <c r="Q26">
-        <v>596.4400986234709</v>
-      </c>
-      <c r="R26">
-        <v>596.4400986234709</v>
-      </c>
-      <c r="S26">
-        <v>0.1549345971846316</v>
-      </c>
-      <c r="T26">
-        <v>0.1549345971846316</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>55.29909549999999</v>
+      </c>
+      <c r="H36">
+        <v>110.598191</v>
+      </c>
+      <c r="I36">
+        <v>0.2004202033530832</v>
+      </c>
+      <c r="J36">
+        <v>0.144630416804034</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.50581</v>
+      </c>
+      <c r="O36">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P36">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q36">
+        <v>27.75664366495166</v>
+      </c>
+      <c r="R36">
+        <v>166.53986198971</v>
+      </c>
+      <c r="S36">
+        <v>0.006130033048849004</v>
+      </c>
+      <c r="T36">
+        <v>0.005897711261995225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55.29909549999999</v>
+      </c>
+      <c r="H37">
+        <v>110.598191</v>
+      </c>
+      <c r="I37">
+        <v>0.2004202033530832</v>
+      </c>
+      <c r="J37">
+        <v>0.144630416804034</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.2520685</v>
+      </c>
+      <c r="N37">
+        <v>24.504137</v>
+      </c>
+      <c r="O37">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P37">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q37">
+        <v>677.5283060540416</v>
+      </c>
+      <c r="R37">
+        <v>2710.113224216167</v>
+      </c>
+      <c r="S37">
+        <v>0.1496315965927212</v>
+      </c>
+      <c r="T37">
+        <v>0.09597381127125856</v>
       </c>
     </row>
   </sheetData>
